--- a/excels/Nalp_Reports.xlsx
+++ b/excels/Nalp_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14550" windowHeight="5655" tabRatio="661" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" tabRatio="661" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="FulndPartimeJobsby_Emplyer_Type" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:I17"/>
 </workbook>
 </file>
 
@@ -991,7 +992,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,9 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1720,7 +1719,7 @@
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>27</v>
@@ -1771,7 +1770,7 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>27</v>
@@ -1822,7 +1821,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
@@ -1873,7 +1872,7 @@
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>
@@ -1926,7 +1925,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2049,7 +2048,7 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>27</v>
@@ -2100,7 +2099,7 @@
         <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>27</v>
@@ -2151,7 +2150,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
@@ -2202,7 +2201,7 @@
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>
@@ -3251,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3590,7 +3589,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3712,7 +3711,7 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>27</v>
@@ -3763,7 +3762,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>27</v>
@@ -3814,7 +3813,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
@@ -3865,7 +3864,7 @@
         <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>
@@ -5620,9 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6280,7 +6277,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6403,7 +6400,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>27</v>
@@ -6454,7 +6451,7 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>27</v>
@@ -6505,7 +6502,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
@@ -6556,7 +6553,7 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>

--- a/excels/Nalp_Reports.xlsx
+++ b/excels/Nalp_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15135" windowHeight="5955" tabRatio="661" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" tabRatio="661" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="FulndPartimeJobsby_Emplyer_Type" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="159">
   <si>
     <t>TCID</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Full Academic Year</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -492,25 +489,25 @@
     <t>Auto_Data_NALP_Table_11_5</t>
   </si>
   <si>
-    <t>Auto_Data_NALP_Table_Summary_Table_1</t>
-  </si>
-  <si>
-    <t>Auto_Data_NALP_Table_Summary_Table_2</t>
-  </si>
-  <si>
-    <t>Auto_Data_NALP_Table_Summary_Table_3</t>
-  </si>
-  <si>
-    <t>Auto_Data_NALP_Table_Summary_Table_4</t>
-  </si>
-  <si>
-    <t>Auto_Data_NALP_Table_Summary_Table_5</t>
-  </si>
-  <si>
     <t>Class Summary</t>
   </si>
   <si>
     <t>T1_TH3_TCN</t>
+  </si>
+  <si>
+    <t>Auto_Data_NALP_Table_CS_Table_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_NALP_Table_CS_Table_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_NALP_Table_CS_Table_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_NALP_Table_CS_Table_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_NALP_Table_CS_Table_5</t>
   </si>
 </sst>
 </file>
@@ -972,7 +969,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>10</v>
@@ -1016,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -1033,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>10</v>
@@ -1041,13 +1038,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>10</v>
@@ -1055,13 +1052,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>10</v>
@@ -1069,13 +1066,13 @@
     </row>
     <row r="7" spans="1:4" s="24" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>10</v>
@@ -1083,13 +1080,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>10</v>
@@ -1097,13 +1094,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>10</v>
@@ -1111,13 +1108,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -1125,13 +1122,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>10</v>
@@ -1139,13 +1136,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>10</v>
@@ -1153,13 +1150,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>10</v>
@@ -1167,13 +1164,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>10</v>
@@ -1181,13 +1178,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>10</v>
@@ -1195,13 +1192,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>10</v>
@@ -1209,13 +1206,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>10</v>
@@ -1301,10 +1298,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1313,36 +1310,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1351,36 +1348,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1389,36 +1386,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1427,36 +1424,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1465,28 +1462,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1551,10 +1548,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1563,36 +1560,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1601,36 +1598,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1639,36 +1636,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1677,36 +1674,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1715,28 +1712,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1802,10 +1799,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1814,36 +1811,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1852,36 +1849,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1890,36 +1887,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1928,36 +1925,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1966,28 +1963,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2050,10 +2047,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2062,36 +2059,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2100,36 +2097,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2138,36 +2135,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2176,36 +2173,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2214,28 +2211,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2302,10 +2299,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2314,36 +2311,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2352,36 +2349,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2390,36 +2387,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2428,36 +2425,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2466,28 +2463,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2548,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2563,36 +2560,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2601,36 +2598,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2639,36 +2636,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2677,36 +2674,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2715,28 +2712,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2801,10 +2798,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2813,36 +2810,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2851,36 +2848,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2889,36 +2886,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2927,36 +2924,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2965,28 +2962,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3047,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -3062,36 +3059,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3100,36 +3097,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3138,36 +3135,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3176,36 +3173,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -3214,28 +3211,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3301,10 +3298,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -3313,36 +3310,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3351,36 +3348,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3389,36 +3386,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3427,36 +3424,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -3465,28 +3462,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3552,11 +3549,11 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -3564,36 +3561,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3602,36 +3599,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3640,36 +3637,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3678,36 +3675,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -3716,28 +3713,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -3818,36 +3815,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -3856,36 +3853,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3894,36 +3891,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -3932,36 +3929,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -3970,28 +3967,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4003,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4054,10 +4051,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4066,180 +4063,180 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>158</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4313,36 +4310,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4351,36 +4348,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4389,36 +4386,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4427,36 +4424,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4465,28 +4462,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4555,10 +4552,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4567,36 +4564,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4605,36 +4602,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4643,36 +4640,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4681,36 +4678,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4719,28 +4716,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4807,10 +4804,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4819,36 +4816,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -4857,36 +4854,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4895,36 +4892,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4933,36 +4930,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4971,28 +4968,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5054,10 +5051,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -5066,36 +5063,36 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -5104,36 +5101,36 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -5142,36 +5139,36 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -5180,36 +5177,36 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -5218,28 +5215,28 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Nalp_Reports.xlsx
+++ b/excels/Nalp_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" tabRatio="661" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" tabRatio="661" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,11 @@
     <sheet name="FulndPartimeJobsby_Emplyer_Type" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="160">
   <si>
     <t>TCID</t>
   </si>
@@ -508,6 +507,9 @@
   </si>
   <si>
     <t>Auto_Data_NALP_Table_CS_Table_5</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -969,7 +971,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2996,7 +2998,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3496,7 +3498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3593,7 +3597,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
@@ -3631,7 +3635,7 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -3669,7 +3673,7 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -3707,7 +3711,7 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
@@ -4000,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4249,7 +4253,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/excels/Nalp_Reports.xlsx
+++ b/excels/Nalp_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" tabRatio="661" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" tabRatio="661" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,12 @@
     <sheet name="FulndPartimeJobsby_Emplyer_Type" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:H16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="159">
   <si>
     <t>TCID</t>
   </si>
@@ -507,9 +508,6 @@
   </si>
   <si>
     <t>Auto_Data_NALP_Table_CS_Table_5</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -971,7 +969,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1497,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2747,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2998,7 +2996,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3498,9 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3597,7 +3593,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>21</v>
@@ -3635,7 +3631,7 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -3673,7 +3669,7 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -3711,7 +3707,7 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
@@ -4004,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4253,7 +4249,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
